--- a/biology/Botanique/Laîche_glauque/Laîche_glauque.xlsx
+++ b/biology/Botanique/Laîche_glauque/Laîche_glauque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La%C3%AEche_glauque</t>
+          <t>Laîche_glauque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex flacca
 La Laîche glauque (Carex flacca) est une espèce de plantes vivaces de la famille des Cyperaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La%C3%AEche_glauque</t>
+          <t>Laîche_glauque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse dans de nombreux endroits: les prés, les landes, les dunes et les pelouses sablonneuses du littoral européen et d'Afrique du Nord. Elle est naturalisée en Amérique du Nord.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La%C3%AEche_glauque</t>
+          <t>Laîche_glauque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure de 10 à 60 cm de haut. Les feuilles sont vertes sur le dessus, glauques sur le dessous. Elle fleurit d'avril à juin suivant les endroits.
 La plupart des tiges ont deux épis mâles à leur sommet, souvent proches et semblant ne faire qu'une au premier coup d'œil. Les épis femelles sont généralement situés en dessous, aussi par deux, et peuvent être à pétiole court et droit, ou à plus long pétiole et courbés. Les épis femelles font environ 2 à 4 cm de long et 4 à 6 mm de large. Les grains sont arrondis mesurant 2 à 2 ½ mm, avec un bec très court, de moins de 0,3 mm. Ils sont très serrés sur la tige et non éparpillés comme sur Carex panicea.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La%C3%AEche_glauque</t>
+          <t>Laîche_glauque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (25 déc. 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (25 déc. 2010) :
 Carex flacca subsp. erythrostachys (Hoppe) Holub (1988)
 Carex flacca subsp. flacca</t>
         </is>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La%C3%AEche_glauque</t>
+          <t>Laîche_glauque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Carex acuminata  Willd.
 Carex bulbosa Drejer
@@ -632,7 +652,7 @@
 Carex glauca var. sylvatica Asch. &amp; Graebn.
 Carex glauca Scop.
 Carex serrulata Biv. ex Spreng.
-Carex thuringiaca Willd[2].</t>
+Carex thuringiaca Willd.</t>
         </is>
       </c>
     </row>
